--- a/plansensors.xlsx
+++ b/plansensors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">sensor name </t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">acelleramiter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoke sensor </t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +534,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plansensors.xlsx
+++ b/plansensors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">sensor name </t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">acelleramiter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke sensor </t>
   </si>
 </sst>
 </file>
@@ -386,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,22 +528,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plansensors.xlsx
+++ b/plansensors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">sensor name </t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">acelleramiter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc </t>
   </si>
   <si>
     <t xml:space="preserve">smoke sensor </t>
@@ -386,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -422,7 +419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -436,7 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -450,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -464,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -478,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -491,8 +488,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -534,9 +534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -544,10 +544,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>13</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/plansensors.xlsx
+++ b/plansensors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView minimized="1" xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +400,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +423,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
@@ -423,7 +437,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
@@ -451,7 +465,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5">
@@ -465,7 +479,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
@@ -524,7 +538,7 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10">

--- a/plansensors.xlsx
+++ b/plansensors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">sensor name </t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">smoke sensor </t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +571,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
